--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Documents/R Files/Other/FFL-Dash-2024-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{8CFF54EC-58B8-45D2-9048-4135536E0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C34FF97-8A12-4068-8FBD-2BFB34706F3D}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{8CFF54EC-58B8-45D2-9048-4135536E0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE6440B-D4F0-4FC3-9D09-38BC62F1837B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
   <si>
     <t>Points Against</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Team Icons/ffc-modified.png</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -493,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +962,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -973,7 +976,7 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -987,7 +990,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1042,11 +1045,8 @@
       <c r="D38">
         <v>148.19999999999999</v>
       </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1059,11 +1059,8 @@
       <c r="D39">
         <v>100.3</v>
       </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1076,11 +1073,8 @@
       <c r="D40">
         <v>123.32</v>
       </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1093,11 +1087,8 @@
       <c r="D41">
         <v>82</v>
       </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1110,11 +1101,8 @@
       <c r="D42">
         <v>97.12</v>
       </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1127,11 +1115,8 @@
       <c r="D43">
         <v>116.44</v>
       </c>
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1144,11 +1129,8 @@
       <c r="D44">
         <v>123.38</v>
       </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1161,11 +1143,8 @@
       <c r="D45">
         <v>108.36</v>
       </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1178,11 +1157,8 @@
       <c r="D46">
         <v>99</v>
       </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1195,11 +1171,8 @@
       <c r="D47">
         <v>74.319999999999993</v>
       </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1211,9 +1184,6 @@
       </c>
       <c r="D48">
         <v>62.64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,7 +1199,208 @@
       <c r="D49">
         <v>84.44</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>109.66</v>
+      </c>
+      <c r="D50">
+        <v>98.18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>98.18</v>
+      </c>
+      <c r="D51">
+        <v>109.66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>104.64</v>
+      </c>
+      <c r="D52">
+        <v>122.74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>107.42</v>
+      </c>
+      <c r="D53">
+        <v>96.54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>122.74</v>
+      </c>
+      <c r="D54">
+        <v>104.64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>100.7</v>
+      </c>
+      <c r="D55">
+        <v>134.86000000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>125</v>
+      </c>
+      <c r="D56">
+        <v>107.74</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>96.54</v>
+      </c>
+      <c r="D57">
+        <v>107.42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <v>129.32</v>
+      </c>
+      <c r="D58">
+        <v>107.86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>107.86</v>
+      </c>
+      <c r="D59">
+        <v>129.32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>107.74</v>
+      </c>
+      <c r="D60">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>134.86000000000001</v>
+      </c>
+      <c r="D61">
+        <v>100.7</v>
+      </c>
+      <c r="E61" t="s">
         <v>31</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{8CFF54EC-58B8-45D2-9048-4135536E0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE6440B-D4F0-4FC3-9D09-38BC62F1837B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="18360" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -18,26 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 Results'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
   <si>
     <t>Points Against</t>
   </si>
@@ -75,9 +66,6 @@
     <t>Quad Goals</t>
   </si>
   <si>
-    <t>Scum</t>
-  </si>
-  <si>
     <t>The Riddler's Revenge</t>
   </si>
   <si>
@@ -108,12 +96,6 @@
     <t>Team Icons/everybody-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/mooney-modified.png</t>
-  </si>
-  <si>
-    <t>Give me my Mooney</t>
-  </si>
-  <si>
     <t>Team Icons/ladds-modified.png</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Team Icons/quad-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/scum-modified.png</t>
-  </si>
-  <si>
     <t>Team Icons/system-modified.png</t>
   </si>
   <si>
@@ -139,6 +118,21 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Dowdy Partner</t>
+  </si>
+  <si>
+    <t>Team Icons/dowdy-modified.png</t>
+  </si>
+  <si>
+    <t>Seibert Trucks</t>
+  </si>
+  <si>
+    <t>Team Icons/seibert-modified.png</t>
   </si>
 </sst>
 </file>
@@ -200,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,22 +490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -528,9 +522,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -542,9 +536,9 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -556,51 +550,51 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>114.92</v>
+        <v>85.72</v>
       </c>
       <c r="D4">
-        <v>136.47999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>140.06</v>
+        <v>114.92</v>
       </c>
       <c r="D5">
-        <v>100.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136.47999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>90.84</v>
+        <v>140.06</v>
       </c>
       <c r="D6">
-        <v>132.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -612,7 +606,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -626,7 +620,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -640,23 +634,23 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>85.72</v>
+        <v>90.84</v>
       </c>
       <c r="D10">
-        <v>74.459999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -668,9 +662,9 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -682,9 +676,9 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -696,9 +690,9 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -710,9 +704,9 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -724,51 +718,51 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>75.62</v>
+        <v>121.78</v>
       </c>
       <c r="D16">
-        <v>118.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>131.74</v>
+        <v>75.62</v>
       </c>
       <c r="D17">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>95.84</v>
+        <v>131.74</v>
       </c>
       <c r="D18">
-        <v>93.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -780,7 +774,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -794,7 +788,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -808,23 +802,23 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>121.78</v>
+        <v>95.84</v>
       </c>
       <c r="D22">
-        <v>134.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -836,9 +830,9 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -850,9 +844,9 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -864,9 +858,9 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -878,9 +872,9 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -892,51 +886,51 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>80.84</v>
+        <v>133.08000000000001</v>
       </c>
       <c r="D28">
-        <v>109.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>99.66</v>
+        <v>80.84</v>
       </c>
       <c r="D29">
-        <v>124.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>100.68</v>
+        <v>99.66</v>
       </c>
       <c r="D30">
-        <v>135.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -948,7 +942,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -962,7 +956,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -976,23 +970,23 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>133.08000000000001</v>
+        <v>100.68</v>
       </c>
       <c r="D34">
-        <v>50.92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1004,9 +998,9 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1018,9 +1012,9 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1032,9 +1026,9 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1046,9 +1040,9 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1060,51 +1054,51 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>74.319999999999993</v>
+        <v>84.44</v>
       </c>
       <c r="D40">
-        <v>123.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>97.12</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="D41">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42">
+        <v>97.12</v>
+      </c>
+      <c r="D42">
         <v>82</v>
       </c>
-      <c r="D42">
-        <v>97.12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1116,7 +1110,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1144,23 +1138,23 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46">
-        <v>84.44</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1172,9 +1166,9 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1186,9 +1180,9 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1200,12 +1194,12 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>109.66</v>
@@ -1213,16 +1207,13 @@
       <c r="D50">
         <v>98.18</v>
       </c>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>98.18</v>
@@ -1230,67 +1221,55 @@
       <c r="D51">
         <v>109.66</v>
       </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C52">
+        <v>129.32</v>
+      </c>
+      <c r="D52">
+        <v>107.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
         <v>104.64</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>122.74</v>
       </c>
-      <c r="E52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54">
         <v>107.42</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>96.54</v>
       </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54">
-        <v>122.74</v>
-      </c>
-      <c r="D54">
-        <v>104.64</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>100.7</v>
@@ -1298,16 +1277,13 @@
       <c r="D55">
         <v>134.86000000000001</v>
       </c>
-      <c r="E55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>125</v>
@@ -1315,16 +1291,13 @@
       <c r="D56">
         <v>107.74</v>
       </c>
-      <c r="E56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>96.54</v>
@@ -1332,33 +1305,27 @@
       <c r="D57">
         <v>107.42</v>
       </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C58">
-        <v>129.32</v>
+        <v>122.74</v>
       </c>
       <c r="D58">
-        <v>107.86</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>107.86</v>
@@ -1366,16 +1333,13 @@
       <c r="D59">
         <v>129.32</v>
       </c>
-      <c r="E59" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
       </c>
       <c r="C60">
         <v>107.74</v>
@@ -1383,16 +1347,13 @@
       <c r="D60">
         <v>125</v>
       </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>134.86000000000001</v>
@@ -1400,17 +1361,218 @@
       <c r="D61">
         <v>100.7</v>
       </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>78.94</v>
+      </c>
+      <c r="D62">
+        <v>142.96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>101.72</v>
+      </c>
+      <c r="D63">
+        <v>101.98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>108.92</v>
+      </c>
+      <c r="D64">
+        <v>124.4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>115.36</v>
+      </c>
+      <c r="D65">
+        <v>74.5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>142.96</v>
+      </c>
+      <c r="D66">
+        <v>78.94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>80.36</v>
+      </c>
+      <c r="D67">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>97.82</v>
+      </c>
+      <c r="D68">
+        <v>106.62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>74.5</v>
+      </c>
+      <c r="D69">
+        <v>115.36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>124.4</v>
+      </c>
+      <c r="D70">
+        <v>108.92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="D71">
+        <v>80.36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>101.98</v>
+      </c>
+      <c r="D72">
+        <v>101.72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>106.62</v>
+      </c>
+      <c r="D73">
+        <v>97.82</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
-      <sortCondition ref="B1"/>
+    <sortState ref="A2:E73">
+      <sortCondition ref="B1:B73"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+  <sortState ref="A2:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL-Dash-2024-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC6ADFA-D067-40FD-8745-29107BAF1A93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="18360" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
   <si>
     <t>Points Against</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Team Icons/seibert-modified.png</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -194,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,22 +493,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -536,7 +539,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -550,7 +553,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -564,7 +567,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -578,7 +581,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -592,7 +595,7 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -606,7 +609,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -620,7 +623,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -634,7 +637,7 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -648,7 +651,7 @@
         <v>132.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -662,7 +665,7 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -676,7 +679,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -690,7 +693,7 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -704,7 +707,7 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -718,7 +721,7 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -732,7 +735,7 @@
         <v>134.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -746,7 +749,7 @@
         <v>118.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -760,7 +763,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -774,7 +777,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -788,7 +791,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -802,7 +805,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -816,7 +819,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -830,7 +833,7 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -844,7 +847,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -858,7 +861,7 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -872,7 +875,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -886,7 +889,7 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -900,7 +903,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -914,7 +917,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -928,7 +931,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -942,7 +945,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -956,7 +959,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -970,7 +973,7 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -984,7 +987,7 @@
         <v>135.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>109.66</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>107.86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>122.74</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>107.74</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>129.32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1375,11 +1378,8 @@
       <c r="D62">
         <v>142.96</v>
       </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1392,11 +1392,8 @@
       <c r="D63">
         <v>101.98</v>
       </c>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1409,11 +1406,8 @@
       <c r="D64">
         <v>124.4</v>
       </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1426,11 +1420,8 @@
       <c r="D65">
         <v>74.5</v>
       </c>
-      <c r="E65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1443,11 +1434,8 @@
       <c r="D66">
         <v>78.94</v>
       </c>
-      <c r="E66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1460,11 +1448,8 @@
       <c r="D67">
         <v>129.69999999999999</v>
       </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1477,11 +1462,8 @@
       <c r="D68">
         <v>106.62</v>
       </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1494,11 +1476,8 @@
       <c r="D69">
         <v>115.36</v>
       </c>
-      <c r="E69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1511,11 +1490,8 @@
       <c r="D70">
         <v>108.92</v>
       </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1528,11 +1504,8 @@
       <c r="D71">
         <v>80.36</v>
       </c>
-      <c r="E71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1545,11 +1518,8 @@
       <c r="D72">
         <v>101.72</v>
       </c>
-      <c r="E72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1562,17 +1532,218 @@
       <c r="D73">
         <v>97.82</v>
       </c>
-      <c r="E73" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>49.26</v>
+      </c>
+      <c r="D74">
+        <v>120.46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>105.44</v>
+      </c>
+      <c r="D75">
+        <v>97.94</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>107.54</v>
+      </c>
+      <c r="D76">
+        <v>113.42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77">
+        <v>120.46</v>
+      </c>
+      <c r="D77">
+        <v>49.26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>97.94</v>
+      </c>
+      <c r="D78">
+        <v>105.44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>87</v>
+      </c>
+      <c r="D79">
+        <v>125.48</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>129.1</v>
+      </c>
+      <c r="D80">
+        <v>113.88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>113.42</v>
+      </c>
+      <c r="D81">
+        <v>107.54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>125.48</v>
+      </c>
+      <c r="D82">
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>113.88</v>
+      </c>
+      <c r="D83">
+        <v>129.1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>73.84</v>
+      </c>
+      <c r="D84">
+        <v>97.3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>97.3</v>
+      </c>
+      <c r="D85">
+        <v>73.84</v>
+      </c>
+      <c r="E85" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-    <sortState ref="A2:E73">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
       <sortCondition ref="B1:B73"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC6ADFA-D067-40FD-8745-29107BAF1A93}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAEB19C-00A6-4287-A0F1-6A8C4B2250C5}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
   <si>
     <t>Points Against</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
 </sst>
 </file>
@@ -493,22 +496,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -525,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -539,7 +542,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -553,7 +556,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -567,7 +570,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -581,7 +584,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -595,7 +598,7 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -609,7 +612,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -623,7 +626,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -637,7 +640,7 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -651,7 +654,7 @@
         <v>132.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -665,7 +668,7 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -679,7 +682,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -693,7 +696,7 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -707,7 +710,7 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -721,7 +724,7 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -735,7 +738,7 @@
         <v>134.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -749,7 +752,7 @@
         <v>118.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -763,7 +766,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -777,7 +780,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -791,7 +794,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -805,7 +808,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -819,7 +822,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -833,7 +836,7 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -847,7 +850,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -861,7 +864,7 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -875,7 +878,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -889,7 +892,7 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -903,7 +906,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -917,7 +920,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -931,7 +934,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -945,7 +948,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -959,7 +962,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -973,7 +976,7 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -987,7 +990,7 @@
         <v>135.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>109.66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>107.86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>122.74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>107.74</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>129.32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>142.96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>101.98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>106.62</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>115.36</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>108.92</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1546,11 +1549,8 @@
       <c r="D74">
         <v>120.46</v>
       </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -1563,11 +1563,8 @@
       <c r="D75">
         <v>97.94</v>
       </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -1580,11 +1577,8 @@
       <c r="D76">
         <v>113.42</v>
       </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -1597,11 +1591,8 @@
       <c r="D77">
         <v>49.26</v>
       </c>
-      <c r="E77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1614,11 +1605,8 @@
       <c r="D78">
         <v>105.44</v>
       </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -1631,11 +1619,8 @@
       <c r="D79">
         <v>125.48</v>
       </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1648,11 +1633,8 @@
       <c r="D80">
         <v>113.88</v>
       </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -1665,11 +1647,8 @@
       <c r="D81">
         <v>107.54</v>
       </c>
-      <c r="E81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -1682,11 +1661,8 @@
       <c r="D82">
         <v>87</v>
       </c>
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -1699,11 +1675,8 @@
       <c r="D83">
         <v>129.1</v>
       </c>
-      <c r="E83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -1716,11 +1689,8 @@
       <c r="D84">
         <v>97.3</v>
       </c>
-      <c r="E84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1703,208 @@
       <c r="D85">
         <v>73.84</v>
       </c>
-      <c r="E85" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86">
+        <v>90.24</v>
+      </c>
+      <c r="D86">
+        <v>95.96</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87">
+        <v>87.26</v>
+      </c>
+      <c r="D87">
+        <v>134.24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88">
+        <v>95.96</v>
+      </c>
+      <c r="D88">
+        <v>90.24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89">
+        <v>134.24</v>
+      </c>
+      <c r="D89">
+        <v>87.26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90">
+        <v>121.76</v>
+      </c>
+      <c r="D90">
+        <v>137.5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91">
+        <v>133.28</v>
+      </c>
+      <c r="D91">
+        <v>77.42</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="D92">
+        <v>122.6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>77.42</v>
+      </c>
+      <c r="D93">
+        <v>133.28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94">
+        <v>122.6</v>
+      </c>
+      <c r="D94">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95">
+        <v>117.9</v>
+      </c>
+      <c r="D95">
+        <v>92.54</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96">
+        <v>137.5</v>
+      </c>
+      <c r="D96">
+        <v>121.76</v>
+      </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>92.54</v>
+      </c>
+      <c r="D97">
+        <v>117.9</v>
+      </c>
+      <c r="E97" t="s">
         <v>27</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAEB19C-00A6-4287-A0F1-6A8C4B2250C5}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6761E41-7A49-4059-AEDE-A02C1E623F0D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
   <si>
     <t>Points Against</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,22 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -528,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -542,7 +552,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -556,7 +566,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -570,7 +580,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -584,7 +594,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -598,7 +608,7 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -612,7 +622,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -626,7 +636,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -640,7 +650,7 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -654,7 +664,7 @@
         <v>132.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -668,7 +678,7 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -682,7 +692,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -696,7 +706,7 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -710,7 +720,7 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -724,7 +734,7 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -738,7 +748,7 @@
         <v>134.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -752,7 +762,7 @@
         <v>118.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -766,7 +776,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -780,7 +790,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -794,7 +804,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -808,7 +818,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -822,7 +832,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -836,7 +846,7 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -850,7 +860,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -864,7 +874,7 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -878,7 +888,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -892,7 +902,7 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -906,7 +916,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -920,7 +930,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -934,7 +944,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -948,7 +958,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -962,7 +972,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -976,7 +986,7 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>135.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>109.66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>107.86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>122.74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1308,7 @@
         <v>107.74</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1322,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1326,7 +1336,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>129.32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>142.96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>101.98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1462,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>106.62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>115.36</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>108.92</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>120.46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>97.94</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>49.26</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>105.44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>125.48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>107.54</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -1662,7 +1672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>129.1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -1717,11 +1727,8 @@
       <c r="D86">
         <v>95.96</v>
       </c>
-      <c r="E86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -1734,11 +1741,8 @@
       <c r="D87">
         <v>134.24</v>
       </c>
-      <c r="E87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -1751,11 +1755,8 @@
       <c r="D88">
         <v>90.24</v>
       </c>
-      <c r="E88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -1768,11 +1769,8 @@
       <c r="D89">
         <v>87.26</v>
       </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -1785,11 +1783,8 @@
       <c r="D90">
         <v>137.5</v>
       </c>
-      <c r="E90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -1802,11 +1797,8 @@
       <c r="D91">
         <v>77.42</v>
       </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1819,11 +1811,8 @@
       <c r="D92">
         <v>122.6</v>
       </c>
-      <c r="E92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1836,11 +1825,8 @@
       <c r="D93">
         <v>133.28</v>
       </c>
-      <c r="E93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -1853,11 +1839,8 @@
       <c r="D94">
         <v>131.19999999999999</v>
       </c>
-      <c r="E94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -1870,11 +1853,8 @@
       <c r="D95">
         <v>92.54</v>
       </c>
-      <c r="E95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -1887,11 +1867,8 @@
       <c r="D96">
         <v>121.76</v>
       </c>
-      <c r="E96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +1881,208 @@
       <c r="D97">
         <v>117.9</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="1">
+        <v>93.38</v>
+      </c>
+      <c r="D98" s="1">
+        <v>128.06</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="1">
+        <v>109.94</v>
+      </c>
+      <c r="D99" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>109.94</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101">
+        <v>128.1</v>
+      </c>
+      <c r="D101">
+        <v>104.84</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>104.84</v>
+      </c>
+      <c r="D102">
+        <v>128.1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="1">
+        <v>128.06</v>
+      </c>
+      <c r="D103" s="1">
+        <v>93.38</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="1">
+        <v>114.42</v>
+      </c>
+      <c r="D104">
+        <v>105.6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>105.6</v>
+      </c>
+      <c r="D105" s="1">
+        <v>114.42</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="1">
+        <v>96.34</v>
+      </c>
+      <c r="D106" s="1">
+        <v>97.52</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="1">
+        <v>103</v>
+      </c>
+      <c r="D107" s="1">
+        <v>86.34</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="1">
+        <v>86.34</v>
+      </c>
+      <c r="D108" s="1">
+        <v>103</v>
+      </c>
+      <c r="E108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="1">
+        <v>97.52</v>
+      </c>
+      <c r="D109" s="1">
+        <v>96.34</v>
+      </c>
+      <c r="E109" t="s">
         <v>27</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6761E41-7A49-4059-AEDE-A02C1E623F0D}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA5E1D0-E59D-4A10-B400-B81CC754BA4F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="630" yWindow="825" windowWidth="21600" windowHeight="11280" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
   <si>
     <t>Points Against</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
 </sst>
 </file>
@@ -506,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1874,7 @@
         <v>121.76</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -1895,11 +1901,8 @@
       <c r="D98" s="1">
         <v>128.06</v>
       </c>
-      <c r="E98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -1912,11 +1915,8 @@
       <c r="D99" s="1">
         <v>106.2</v>
       </c>
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -1929,11 +1929,8 @@
       <c r="D100" s="1">
         <v>109.94</v>
       </c>
-      <c r="E100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -1946,11 +1943,8 @@
       <c r="D101">
         <v>104.84</v>
       </c>
-      <c r="E101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -1963,11 +1957,8 @@
       <c r="D102">
         <v>128.1</v>
       </c>
-      <c r="E102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -1980,11 +1971,8 @@
       <c r="D103" s="1">
         <v>93.38</v>
       </c>
-      <c r="E103" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -1997,11 +1985,8 @@
       <c r="D104">
         <v>105.6</v>
       </c>
-      <c r="E104" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -2014,11 +1999,8 @@
       <c r="D105" s="1">
         <v>114.42</v>
       </c>
-      <c r="E105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -2031,11 +2013,8 @@
       <c r="D106" s="1">
         <v>97.52</v>
       </c>
-      <c r="E106" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -2048,11 +2027,8 @@
       <c r="D107" s="1">
         <v>86.34</v>
       </c>
-      <c r="E107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2065,11 +2041,8 @@
       <c r="D108" s="1">
         <v>103</v>
       </c>
-      <c r="E108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -2082,7 +2055,376 @@
       <c r="D109" s="1">
         <v>96.34</v>
       </c>
-      <c r="E109" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>101.64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="1">
+        <v>118.82</v>
+      </c>
+      <c r="D111" s="1">
+        <v>117.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>82.88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="1">
+        <v>118.88</v>
+      </c>
+      <c r="D113" s="1">
+        <v>91.08</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="D114" s="1">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="1">
+        <v>117.24</v>
+      </c>
+      <c r="D115" s="1">
+        <v>118.82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="1">
+        <v>101.64</v>
+      </c>
+      <c r="D116" s="1">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>136.22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="1">
+        <v>121.66</v>
+      </c>
+      <c r="D118" s="1">
+        <v>82.62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="1">
+        <v>82.62</v>
+      </c>
+      <c r="D119" s="1">
+        <v>121.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="1">
+        <v>91.08</v>
+      </c>
+      <c r="D120" s="1">
+        <v>118.88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="1">
+        <v>136.22</v>
+      </c>
+      <c r="D121" s="1">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="1">
+        <v>93.14</v>
+      </c>
+      <c r="D122" s="1">
+        <v>172.76</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="1">
+        <v>127.74</v>
+      </c>
+      <c r="D123" s="1">
+        <v>75.48</v>
+      </c>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="1">
+        <v>93.98</v>
+      </c>
+      <c r="D124" s="1">
+        <v>108.54</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="1">
+        <v>108.54</v>
+      </c>
+      <c r="D125" s="1">
+        <v>93.98</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="1">
+        <v>109.64</v>
+      </c>
+      <c r="D126" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="D127" s="1">
+        <v>109.64</v>
+      </c>
+      <c r="E127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="1">
+        <v>75.48</v>
+      </c>
+      <c r="D128" s="1">
+        <v>127.74</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1">
+        <v>120.58</v>
+      </c>
+      <c r="D129" s="1">
+        <v>108.86</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="1">
+        <v>117.78</v>
+      </c>
+      <c r="D130" s="1">
+        <v>98.98</v>
+      </c>
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="1">
+        <v>108.86</v>
+      </c>
+      <c r="D131" s="1">
+        <v>120.58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="1">
+        <v>98.98</v>
+      </c>
+      <c r="D132" s="1">
+        <v>117.78</v>
+      </c>
+      <c r="E132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="1">
+        <v>172.76</v>
+      </c>
+      <c r="D133" s="1">
+        <v>93.14</v>
+      </c>
+      <c r="E133" t="s">
         <v>27</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA5E1D0-E59D-4A10-B400-B81CC754BA4F}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8039AF3A-BE28-4197-913B-0E38051A9784}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="825" windowWidth="21600" windowHeight="11280" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 Results'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
   <si>
     <t>Points Against</t>
   </si>
@@ -72,9 +83,6 @@
     <t>DK Meet Cute</t>
   </si>
   <si>
-    <t>You're Friered!</t>
-  </si>
-  <si>
     <t>Ladds with Chubbs</t>
   </si>
   <si>
@@ -111,9 +119,6 @@
     <t>Team Icons/riddler-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/friered-modified.png</t>
-  </si>
-  <si>
     <t>Team Icons/ffc-modified.png</t>
   </si>
   <si>
@@ -148,6 +153,15 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>UNLIMITED BOWERS</t>
+  </si>
+  <si>
+    <t>Team Icons/unlimited-modified.png</t>
   </si>
 </sst>
 </file>
@@ -512,22 +526,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,9 +558,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -558,7 +572,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -572,9 +586,9 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -586,9 +600,9 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -600,7 +614,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -614,9 +628,9 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -628,7 +642,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -642,7 +656,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -656,9 +670,9 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -670,9 +684,9 @@
         <v>132.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -684,7 +698,7 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -698,9 +712,9 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -712,9 +726,9 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -726,7 +740,7 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -740,9 +754,9 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -754,9 +768,9 @@
         <v>134.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -768,7 +782,7 @@
         <v>118.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -782,9 +796,9 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -796,7 +810,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -810,7 +824,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -824,9 +838,9 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -838,9 +852,9 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -852,7 +866,7 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -866,9 +880,9 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -880,9 +894,9 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -894,7 +908,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -908,9 +922,9 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -922,9 +936,9 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -936,7 +950,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -950,9 +964,9 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -964,7 +978,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -978,7 +992,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -992,9 +1006,9 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1006,9 +1020,9 @@
         <v>135.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1020,7 +1034,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1034,9 +1048,9 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1048,9 +1062,9 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1062,7 +1076,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1076,9 +1090,9 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1090,9 +1104,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1104,7 +1118,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1118,9 +1132,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1132,7 +1146,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1160,9 +1174,9 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1174,9 +1188,9 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1188,7 +1202,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1202,9 +1216,9 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1216,12 +1230,12 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>109.66</v>
@@ -1230,12 +1244,12 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>98.18</v>
@@ -1244,12 +1258,12 @@
         <v>109.66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>129.32</v>
@@ -1258,12 +1272,12 @@
         <v>107.86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>104.64</v>
@@ -1272,12 +1286,12 @@
         <v>122.74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>107.42</v>
@@ -1286,12 +1300,12 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>100.7</v>
@@ -1300,12 +1314,12 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>125</v>
@@ -1314,12 +1328,12 @@
         <v>107.74</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>96.54</v>
@@ -1328,12 +1342,12 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>122.74</v>
@@ -1342,12 +1356,12 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>107.86</v>
@@ -1356,12 +1370,12 @@
         <v>129.32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>107.74</v>
@@ -1370,12 +1384,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>134.86000000000001</v>
@@ -1384,12 +1398,12 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>78.94</v>
@@ -1398,12 +1412,12 @@
         <v>142.96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>101.72</v>
@@ -1412,12 +1426,12 @@
         <v>101.98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>108.92</v>
@@ -1426,12 +1440,12 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>115.36</v>
@@ -1440,12 +1454,12 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>142.96</v>
@@ -1454,12 +1468,12 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>80.36</v>
@@ -1468,12 +1482,12 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>97.82</v>
@@ -1482,12 +1496,12 @@
         <v>106.62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>74.5</v>
@@ -1496,12 +1510,12 @@
         <v>115.36</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>124.4</v>
@@ -1510,12 +1524,12 @@
         <v>108.92</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>129.69999999999999</v>
@@ -1524,12 +1538,12 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>101.98</v>
@@ -1538,12 +1552,12 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>106.62</v>
@@ -1552,12 +1566,12 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74">
         <v>49.26</v>
@@ -1566,12 +1580,12 @@
         <v>120.46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75">
         <v>105.44</v>
@@ -1580,12 +1594,12 @@
         <v>97.94</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>107.54</v>
@@ -1594,12 +1608,12 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>120.46</v>
@@ -1608,12 +1622,12 @@
         <v>49.26</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C78">
         <v>97.94</v>
@@ -1622,12 +1636,12 @@
         <v>105.44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>87</v>
@@ -1636,12 +1650,12 @@
         <v>125.48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>129.1</v>
@@ -1650,12 +1664,12 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>113.42</v>
@@ -1664,12 +1678,12 @@
         <v>107.54</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
         <v>33</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
       </c>
       <c r="C82">
         <v>125.48</v>
@@ -1678,12 +1692,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>113.88</v>
@@ -1692,12 +1706,12 @@
         <v>129.1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84">
         <v>73.84</v>
@@ -1706,12 +1720,12 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>97.3</v>
@@ -1720,12 +1734,12 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C86">
         <v>90.24</v>
@@ -1734,12 +1748,12 @@
         <v>95.96</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>87.26</v>
@@ -1748,12 +1762,12 @@
         <v>134.24</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>95.96</v>
@@ -1762,12 +1776,12 @@
         <v>90.24</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>134.24</v>
@@ -1776,12 +1790,12 @@
         <v>87.26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>121.76</v>
@@ -1790,12 +1804,12 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>133.28</v>
@@ -1804,12 +1818,12 @@
         <v>77.42</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>131.19999999999999</v>
@@ -1818,12 +1832,12 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>77.42</v>
@@ -1832,12 +1846,12 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>122.6</v>
@@ -1846,12 +1860,12 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>117.9</v>
@@ -1860,12 +1874,12 @@
         <v>92.54</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>137.5</v>
@@ -1874,12 +1888,12 @@
         <v>121.76</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>92.54</v>
@@ -1888,12 +1902,12 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
         <v>93.38</v>
@@ -1902,12 +1916,12 @@
         <v>128.06</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
         <v>109.94</v>
@@ -1916,12 +1930,12 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
         <v>106.2</v>
@@ -1930,12 +1944,12 @@
         <v>109.94</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>128.1</v>
@@ -1944,12 +1958,12 @@
         <v>104.84</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>104.84</v>
@@ -1958,12 +1972,12 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1">
         <v>128.06</v>
@@ -1972,12 +1986,12 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1">
         <v>114.42</v>
@@ -1986,12 +2000,12 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>105.6</v>
@@ -2000,12 +2014,12 @@
         <v>114.42</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1">
         <v>96.34</v>
@@ -2014,12 +2028,12 @@
         <v>97.52</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1">
         <v>103</v>
@@ -2028,12 +2042,12 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
         <v>86.34</v>
@@ -2042,12 +2056,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1">
         <v>97.52</v>
@@ -2056,12 +2070,12 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" s="1">
         <v>61.5</v>
@@ -2070,12 +2084,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" s="1">
         <v>118.82</v>
@@ -2084,12 +2098,12 @@
         <v>117.24</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1">
         <v>95.7</v>
@@ -2098,12 +2112,12 @@
         <v>82.88</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1">
         <v>118.88</v>
@@ -2112,12 +2126,12 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" s="1">
         <v>82.88</v>
@@ -2126,12 +2140,12 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1">
         <v>117.24</v>
@@ -2140,12 +2154,12 @@
         <v>118.82</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" s="1">
         <v>101.64</v>
@@ -2154,12 +2168,12 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1">
         <v>86.6</v>
@@ -2168,12 +2182,12 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1">
         <v>121.66</v>
@@ -2182,12 +2196,12 @@
         <v>82.62</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1">
         <v>82.62</v>
@@ -2196,12 +2210,12 @@
         <v>121.66</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C120" s="1">
         <v>91.08</v>
@@ -2210,12 +2224,12 @@
         <v>118.88</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C121" s="1">
         <v>136.22</v>
@@ -2224,12 +2238,12 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C122" s="1">
         <v>93.14</v>
@@ -2237,16 +2251,13 @@
       <c r="D122" s="1">
         <v>172.76</v>
       </c>
-      <c r="E122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C123" s="1">
         <v>127.74</v>
@@ -2254,16 +2265,13 @@
       <c r="D123" s="1">
         <v>75.48</v>
       </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1">
         <v>93.98</v>
@@ -2271,16 +2279,13 @@
       <c r="D124" s="1">
         <v>108.54</v>
       </c>
-      <c r="E124" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" s="1">
         <v>108.54</v>
@@ -2288,16 +2293,13 @@
       <c r="D125" s="1">
         <v>93.98</v>
       </c>
-      <c r="E125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C126" s="1">
         <v>109.64</v>
@@ -2305,16 +2307,13 @@
       <c r="D126" s="1">
         <v>101.5</v>
       </c>
-      <c r="E126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C127" s="1">
         <v>101.5</v>
@@ -2322,16 +2321,13 @@
       <c r="D127" s="1">
         <v>109.64</v>
       </c>
-      <c r="E127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C128" s="1">
         <v>75.48</v>
@@ -2339,16 +2335,13 @@
       <c r="D128" s="1">
         <v>127.74</v>
       </c>
-      <c r="E128" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1">
         <v>120.58</v>
@@ -2356,16 +2349,13 @@
       <c r="D129" s="1">
         <v>108.86</v>
       </c>
-      <c r="E129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>117.78</v>
@@ -2373,16 +2363,13 @@
       <c r="D130" s="1">
         <v>98.98</v>
       </c>
-      <c r="E130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C131" s="1">
         <v>108.86</v>
@@ -2390,16 +2377,13 @@
       <c r="D131" s="1">
         <v>120.58</v>
       </c>
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C132" s="1">
         <v>98.98</v>
@@ -2407,16 +2391,13 @@
       <c r="D132" s="1">
         <v>117.78</v>
       </c>
-      <c r="E132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C133" s="1">
         <v>172.76</v>
@@ -2424,8 +2405,209 @@
       <c r="D133" s="1">
         <v>93.14</v>
       </c>
-      <c r="E133" t="s">
-        <v>27</v>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="1">
+        <v>116.4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="1">
+        <v>93.16</v>
+      </c>
+      <c r="D135" s="1">
+        <v>109.62</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="D136" s="1">
+        <v>88.88</v>
+      </c>
+      <c r="E136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="D137" s="1">
+        <v>91.9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="D138" s="1">
+        <v>128.62</v>
+      </c>
+      <c r="E138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="1">
+        <v>91.9</v>
+      </c>
+      <c r="D139" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="1">
+        <v>128.62</v>
+      </c>
+      <c r="D140" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="1">
+        <v>122.66</v>
+      </c>
+      <c r="D141" s="1">
+        <v>98.92</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="1">
+        <v>98.92</v>
+      </c>
+      <c r="D142" s="1">
+        <v>122.66</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" s="1">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="D143" s="1">
+        <v>116.4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144" s="1">
+        <v>88.88</v>
+      </c>
+      <c r="D144" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" s="1">
+        <v>109.62</v>
+      </c>
+      <c r="D145" s="1">
+        <v>93.16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2616,8 @@
       <sortCondition ref="B1:B73"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A151:A162">
+    <sortCondition ref="A151:A162"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8039AF3A-BE28-4197-913B-0E38051A9784}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131F75E5-E140-4F25-9C8F-6C6C4BB00B37}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
   <si>
     <t>Points Against</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Team Icons/unlimited-modified.png</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -526,22 +529,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -572,7 +575,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -586,7 +589,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -600,7 +603,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -614,7 +617,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -628,7 +631,7 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -642,7 +645,7 @@
         <v>114.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -656,7 +659,7 @@
         <v>140.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -670,7 +673,7 @@
         <v>90.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -684,7 +687,7 @@
         <v>132.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -698,7 +701,7 @@
         <v>111.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -712,7 +715,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -726,7 +729,7 @@
         <v>88.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -740,7 +743,7 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -754,7 +757,7 @@
         <v>107.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -768,7 +771,7 @@
         <v>134.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -782,7 +785,7 @@
         <v>118.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -796,7 +799,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -810,7 +813,7 @@
         <v>121.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -824,7 +827,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -838,7 +841,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -852,7 +855,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -866,7 +869,7 @@
         <v>133.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -880,7 +883,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -894,7 +897,7 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -908,7 +911,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -922,7 +925,7 @@
         <v>100.68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -936,7 +939,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -950,7 +953,7 @@
         <v>109.08</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -964,7 +967,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -978,7 +981,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -992,7 +995,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>102.38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>135.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>80.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>123.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>109.66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>107.86</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>122.74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>107.74</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>129.32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>142.96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>101.98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>106.62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>115.36</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>108.92</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>97.82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>120.46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>97.94</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>113.42</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>49.26</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>105.44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>125.48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>107.54</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>129.1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>95.96</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>134.24</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>90.24</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>87.26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>77.42</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>92.54</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>121.76</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>128.06</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>109.94</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>104.84</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>114.42</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>97.52</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>117.24</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>82.88</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>118.82</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>82.62</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>121.66</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>118.88</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>172.76</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>75.48</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>108.54</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>93.98</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>109.64</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>127.74</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>108.86</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>98.98</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>120.58</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>117.78</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>93.14</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -2419,11 +2422,8 @@
       <c r="D134" s="1">
         <v>135.86000000000001</v>
       </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -2436,11 +2436,8 @@
       <c r="D135" s="1">
         <v>109.62</v>
       </c>
-      <c r="E135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -2453,11 +2450,8 @@
       <c r="D136" s="1">
         <v>88.88</v>
       </c>
-      <c r="E136" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -2470,11 +2464,8 @@
       <c r="D137" s="1">
         <v>91.9</v>
       </c>
-      <c r="E137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -2487,11 +2478,8 @@
       <c r="D138" s="1">
         <v>128.62</v>
       </c>
-      <c r="E138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -2504,11 +2492,8 @@
       <c r="D139" s="1">
         <v>97.06</v>
       </c>
-      <c r="E139" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2521,11 +2506,8 @@
       <c r="D140" s="1">
         <v>102.3</v>
       </c>
-      <c r="E140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2538,11 +2520,8 @@
       <c r="D141" s="1">
         <v>98.92</v>
       </c>
-      <c r="E141" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2555,11 +2534,8 @@
       <c r="D142" s="1">
         <v>122.66</v>
       </c>
-      <c r="E142" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2572,11 +2548,8 @@
       <c r="D143" s="1">
         <v>116.4</v>
       </c>
-      <c r="E143" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -2589,11 +2562,8 @@
       <c r="D144" s="1">
         <v>75.28</v>
       </c>
-      <c r="E144" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -2606,7 +2576,208 @@
       <c r="D145" s="1">
         <v>93.16</v>
       </c>
-      <c r="E145" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="1">
+        <v>99.86</v>
+      </c>
+      <c r="D146" s="1">
+        <v>143.28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="1">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="D147" s="1">
+        <v>107.14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="1">
+        <v>116.68</v>
+      </c>
+      <c r="D148" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="1">
+        <v>123.32</v>
+      </c>
+      <c r="D149" s="1">
+        <v>129.6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="1">
+        <v>139.04</v>
+      </c>
+      <c r="D150" s="1">
+        <v>120.32</v>
+      </c>
+      <c r="E150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="D151" s="1">
+        <v>116.68</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="1">
+        <v>129.6</v>
+      </c>
+      <c r="D152" s="1">
+        <v>123.32</v>
+      </c>
+      <c r="E152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="1">
+        <v>103.62</v>
+      </c>
+      <c r="D153" s="1">
+        <v>90.08</v>
+      </c>
+      <c r="E153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="1">
+        <v>143.28</v>
+      </c>
+      <c r="D154" s="1">
+        <v>99.86</v>
+      </c>
+      <c r="E154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="1">
+        <v>107.14</v>
+      </c>
+      <c r="D155" s="1">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1">
+        <v>90.08</v>
+      </c>
+      <c r="D156" s="1">
+        <v>103.62</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="1">
+        <v>120.32</v>
+      </c>
+      <c r="D157" s="1">
+        <v>139.04</v>
+      </c>
+      <c r="E157" t="s">
         <v>40</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claycorp-my.sharepoint.com/personal/axelrade_claycorp_com/Documents/Desktop/FFL-Dash-2024-main/FFL-Dash-2024-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131F75E5-E140-4F25-9C8F-6C6C4BB00B37}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{54514281-ABBE-EB49-BC15-AE282146F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03E41BC-557E-4FE6-A3D0-6C8D6AB86767}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 Results" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="43">
   <si>
     <t>Points Against</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -529,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,9 +2593,6 @@
       <c r="D146" s="1">
         <v>143.28</v>
       </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -2607,9 +2607,6 @@
       <c r="D147" s="1">
         <v>107.14</v>
       </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -2624,9 +2621,6 @@
       <c r="D148" s="1">
         <v>119.4</v>
       </c>
-      <c r="E148" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -2641,9 +2635,6 @@
       <c r="D149" s="1">
         <v>129.6</v>
       </c>
-      <c r="E149" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -2658,9 +2649,6 @@
       <c r="D150" s="1">
         <v>120.32</v>
       </c>
-      <c r="E150" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -2675,9 +2663,6 @@
       <c r="D151" s="1">
         <v>116.68</v>
       </c>
-      <c r="E151" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2692,9 +2677,6 @@
       <c r="D152" s="1">
         <v>123.32</v>
       </c>
-      <c r="E152" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -2709,9 +2691,6 @@
       <c r="D153" s="1">
         <v>90.08</v>
       </c>
-      <c r="E153" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -2726,9 +2705,6 @@
       <c r="D154" s="1">
         <v>99.86</v>
       </c>
-      <c r="E154" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -2743,9 +2719,6 @@
       <c r="D155" s="1">
         <v>69.760000000000005</v>
       </c>
-      <c r="E155" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -2760,9 +2733,6 @@
       <c r="D156" s="1">
         <v>103.62</v>
       </c>
-      <c r="E156" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -2777,7 +2747,208 @@
       <c r="D157" s="1">
         <v>139.04</v>
       </c>
-      <c r="E157" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="1">
+        <v>107.86</v>
+      </c>
+      <c r="D158" s="1">
+        <v>125.48</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" s="1">
+        <v>115.06</v>
+      </c>
+      <c r="D159" s="1">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="1">
+        <v>112.08</v>
+      </c>
+      <c r="D160" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" s="1">
+        <v>122.92</v>
+      </c>
+      <c r="D161" s="1">
+        <v>111.74</v>
+      </c>
+      <c r="E161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" s="1">
+        <v>99.44</v>
+      </c>
+      <c r="D162" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" s="1">
+        <v>137.46</v>
+      </c>
+      <c r="D163" s="1">
+        <v>103.76</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>112.08</v>
+      </c>
+      <c r="E164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="1">
+        <v>125.48</v>
+      </c>
+      <c r="D165" s="1">
+        <v>107.86</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="1">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="D166" s="1">
+        <v>115.06</v>
+      </c>
+      <c r="E166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="D167" s="1">
+        <v>99.44</v>
+      </c>
+      <c r="E167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="1">
+        <v>103.76</v>
+      </c>
+      <c r="D168" s="1">
+        <v>137.46</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="1">
+        <v>111.74</v>
+      </c>
+      <c r="D169" s="1">
+        <v>122.92</v>
+      </c>
+      <c r="E169" t="s">
         <v>40</v>
       </c>
     </row>
